--- a/sec542/SEC542.xlsx
+++ b/sec542/SEC542.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>Page</t>
   </si>
@@ -19,13 +19,19 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>Notes</t>
+    <t>Page Content Overview</t>
+  </si>
+  <si>
+    <t>1-5</t>
   </si>
   <si>
     <t>why web applications, why, xss, sqli</t>
   </si>
   <si>
     <t>web apps are popular because of widespread use.  extremely portable.  range of OS platforms.  stores, manages, and access sensitive info</t>
+  </si>
+  <si>
+    <t>1-6</t>
   </si>
   <si>
     <t>tangled web, zalewski, design, security</t>
@@ -40,10 +46,16 @@
     <t>all browsers support http 0.9</t>
   </si>
   <si>
+    <t>1-7</t>
+  </si>
+  <si>
     <t>security testing, development, software, national vulnerability database, exploit database, offensive security, http://nvd.nist.gof, http://www.xssed.com, http://ww.exploit-db.com</t>
   </si>
   <si>
     <t>xssed announces public websites being found vulnerable to various flaws (no longer actively maintained).</t>
+  </si>
+  <si>
+    <t>1-8</t>
   </si>
   <si>
     <t>web 2.0, http, ajax, google maps</t>
@@ -52,10 +64,16 @@
     <t>web 2.0 is overused and annoying, pages can be dynamically updated with ajax, google maps is a good example of ajax interaction</t>
   </si>
   <si>
+    <t>1-9</t>
+  </si>
+  <si>
     <t>cloud, on-demand resources, liability, restriction, vendors</t>
   </si>
   <si>
     <t>vendors hesitate to allow testing or so its assumed, liability limits testing.  same types of risks and flaws as non-cloud based services.  many cloud vendors allow testing, you just have to ask</t>
+  </si>
+  <si>
+    <t>1-11</t>
   </si>
   <si>
     <t>pen testers viewpoint, viewpoint, pen testers, mistakes</t>
@@ -64,10 +82,16 @@
     <t>must think maliciously, but act professionally, what mistakes did the developers make?</t>
   </si>
   <si>
+    <t>1-12</t>
+  </si>
+  <si>
     <t>penetration testing, vulnerability disovery, methodology, pen testing methodology, typical pen testing methodology, service-side pen test, client-side pen test, OWASP, PTES, penetration testing execution standard, methodologies</t>
   </si>
   <si>
     <t>typical methodology is too rigid:  Recon, scanning, vuln testing, exploit, post exploit, reporting.   client-side pen test: means the victim initiates the connection, service-side pen test: means the pen tester initiates the connection.  web app pen testers tend to be much more fluid:  once discovery of sqli we tend to go for the kill immediately.  PTES (penetration testing execution standard) offers great starting point.  OWASP matches up best for web pen tests, http://www.pentest-standard.org/</t>
+  </si>
+  <si>
+    <t>1-13</t>
   </si>
   <si>
     <t>OWASP, OTG, OWASP Testing Guide, test ids, OWASP test ids, testing checklist, checklist, OWASP Testing Project</t>
@@ -80,9 +104,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m-d"/>
-  </numFmts>
   <fonts count="3">
     <font>
       <sz val="10.0"/>
@@ -134,7 +155,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -213,102 +234,102 @@
       <c r="Z1" s="4"/>
     </row>
     <row r="2">
-      <c r="A2" s="5">
-        <v>42740.0</v>
+      <c r="A2" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5">
-        <v>42741.0</v>
+      <c r="A3" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="5">
-        <v>42741.0</v>
-      </c>
       <c r="B4" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5">
-        <v>42742.0</v>
+      <c r="A5" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5">
-        <v>42743.0</v>
+      <c r="A6" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5">
-        <v>42744.0</v>
+      <c r="A7" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5">
-        <v>42746.0</v>
+      <c r="A8" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5">
-        <v>42747.0</v>
+      <c r="A9" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5">
-        <v>42748.0</v>
+      <c r="A10" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11">

--- a/sec542/SEC542.xlsx
+++ b/sec542/SEC542.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="355">
   <si>
     <t>1-5</t>
   </si>
@@ -947,6 +947,135 @@
   </si>
   <si>
     <t>netcraft example, netcraft, web server detection, netblock owner, netcraft site report, ISP information</t>
+  </si>
+  <si>
+    <t>2-16</t>
+  </si>
+  <si>
+    <t>exercise: gathering server information, netcat, nc</t>
+  </si>
+  <si>
+    <t>2-17</t>
+  </si>
+  <si>
+    <t>2-18</t>
+  </si>
+  <si>
+    <t>nmap -sV, http-robots.txt, robots.txt</t>
+  </si>
+  <si>
+    <t>2-19</t>
+  </si>
+  <si>
+    <t>otg-info-002, fingerprinting web server, owasp testing guide fingerprinting</t>
+  </si>
+  <si>
+    <t>2-20</t>
+  </si>
+  <si>
+    <t>otg-config-006, test http methods, test http verbs, http verbs testing</t>
+  </si>
+  <si>
+    <t>2-21</t>
+  </si>
+  <si>
+    <t>software configuration, configuration, default pages</t>
+  </si>
+  <si>
+    <t>2-22</t>
+  </si>
+  <si>
+    <t>http request methods (supported), put, delete, connect, trace, options</t>
+  </si>
+  <si>
+    <t>2-23</t>
+  </si>
+  <si>
+    <t>netcat to determine supported http request methods, http requests (supported), supported http requests</t>
+  </si>
+  <si>
+    <t>2-24</t>
+  </si>
+  <si>
+    <t>default pages, nikto, apache default pages, iis default pages</t>
+  </si>
+  <si>
+    <t>2-25</t>
+  </si>
+  <si>
+    <t>nikto, chris sullo, nikto (purpose), application fingerprinting</t>
+  </si>
+  <si>
+    <t>2-26</t>
+  </si>
+  <si>
+    <t>software configuration flaws, owasp testing guide, owasp config testing, config testing, nikto, unpatched servers, configuration flaw, OWASP A4</t>
+  </si>
+  <si>
+    <t>2-27</t>
+  </si>
+  <si>
+    <t>configuration flaws, logos for vulnerabilities, heartbleed, shellshock, drupalgeddon, drupal</t>
+  </si>
+  <si>
+    <t>2-28</t>
+  </si>
+  <si>
+    <t>software configuration flaws, owasp testing guide, configuration flaws, nikto, vulnerability scanners, csrf, cross-site request forgery, os command injection, nikto</t>
+  </si>
+  <si>
+    <t>2-29</t>
+  </si>
+  <si>
+    <t>configuration flaws, logos, heartbleed logo, shellshock logo, drupalgeddon logo, shellshock</t>
+  </si>
+  <si>
+    <t>2-30</t>
+  </si>
+  <si>
+    <t>bash shell, shellshock, bash functions, bash parser, shellshock bash parser, bourne-again shell, bash, cve-2014-6271, parsing flaws, shellshock explanation</t>
+  </si>
+  <si>
+    <t>2-31</t>
+  </si>
+  <si>
+    <t>shellshocking, shellshock flow, cve-2014-6217, michael zalewski, cve-2014-6278, cve-2014-7169, cve-2014-6277, cve-2014-7186, cve-2014-7187, cves, os command injection</t>
+  </si>
+  <si>
+    <t>2-32</t>
+  </si>
+  <si>
+    <t>shellshock on the web, bash and web apps, /bin/sh, /bin/bash, popen(), system(), shellshock affected languages, cgi scripts, bash in cgi, symbolic link</t>
+  </si>
+  <si>
+    <t>2-33</t>
+  </si>
+  <si>
+    <t>shellshock payloads, shellshock injection, cgi scripts, blind shellshock injection, shells, CGI, shellshock, user-agents, cookies, referer, semicolons (shellshock), cgi environment variable</t>
+  </si>
+  <si>
+    <t>2-34</t>
+  </si>
+  <si>
+    <t>shellshock injection explained, cgi env variable, shellshock injection, http_referer, http_user_agent, http_cookie</t>
+  </si>
+  <si>
+    <t>2-35</t>
+  </si>
+  <si>
+    <t>shellshock prefix, shellshock padding, shellshock command, curly braces, colon (shellshock), bash do nothing, http headers (shellshock)</t>
+  </si>
+  <si>
+    <t>2-36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shellshock execution and impact, shellshock http_user_agent, http_user_agent, blind shellshock poc, meterpreter, meterpreter (shellshock), priveledge escalation </t>
+  </si>
+  <si>
+    <t>2-37</t>
+  </si>
+  <si>
+    <t>shellshocked http visualized, benign http headers (shellshock), shellshocked http headers, shellshock, interception proxy (shellshock), http_user_agent_cgi, shellshock injection payload</t>
   </si>
 </sst>
 </file>
@@ -972,12 +1101,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
@@ -5892,8 +6016,12 @@
       <c r="Y157" s="3"/>
     </row>
     <row r="158">
-      <c r="A158" s="4"/>
-      <c r="B158" s="5"/>
+      <c r="A158" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>313</v>
+      </c>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
@@ -5919,8 +6047,12 @@
       <c r="Y158" s="3"/>
     </row>
     <row r="159">
-      <c r="A159" s="4"/>
-      <c r="B159" s="5"/>
+      <c r="A159" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>313</v>
+      </c>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
@@ -5946,8 +6078,12 @@
       <c r="Y159" s="3"/>
     </row>
     <row r="160">
-      <c r="A160" s="4"/>
-      <c r="B160" s="5"/>
+      <c r="A160" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>316</v>
+      </c>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
@@ -5973,8 +6109,12 @@
       <c r="Y160" s="3"/>
     </row>
     <row r="161">
-      <c r="A161" s="4"/>
-      <c r="B161" s="5"/>
+      <c r="A161" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>318</v>
+      </c>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
@@ -6000,8 +6140,12 @@
       <c r="Y161" s="3"/>
     </row>
     <row r="162">
-      <c r="A162" s="4"/>
-      <c r="B162" s="5"/>
+      <c r="A162" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>320</v>
+      </c>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -6027,8 +6171,12 @@
       <c r="Y162" s="3"/>
     </row>
     <row r="163">
-      <c r="A163" s="4"/>
-      <c r="B163" s="5"/>
+      <c r="A163" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>322</v>
+      </c>
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
@@ -6054,8 +6202,12 @@
       <c r="Y163" s="3"/>
     </row>
     <row r="164">
-      <c r="A164" s="4"/>
-      <c r="B164" s="5"/>
+      <c r="A164" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>324</v>
+      </c>
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
@@ -6081,8 +6233,12 @@
       <c r="Y164" s="3"/>
     </row>
     <row r="165">
-      <c r="A165" s="4"/>
-      <c r="B165" s="5"/>
+      <c r="A165" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
@@ -6108,8 +6264,12 @@
       <c r="Y165" s="3"/>
     </row>
     <row r="166">
-      <c r="A166" s="4"/>
-      <c r="B166" s="5"/>
+      <c r="A166" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>328</v>
+      </c>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
@@ -6135,8 +6295,12 @@
       <c r="Y166" s="3"/>
     </row>
     <row r="167">
-      <c r="A167" s="4"/>
-      <c r="B167" s="5"/>
+      <c r="A167" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>330</v>
+      </c>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
@@ -6162,8 +6326,12 @@
       <c r="Y167" s="3"/>
     </row>
     <row r="168">
-      <c r="A168" s="4"/>
-      <c r="B168" s="5"/>
+      <c r="A168" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>332</v>
+      </c>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
@@ -6189,8 +6357,12 @@
       <c r="Y168" s="3"/>
     </row>
     <row r="169">
-      <c r="A169" s="4"/>
-      <c r="B169" s="5"/>
+      <c r="A169" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>334</v>
+      </c>
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
@@ -6216,8 +6388,12 @@
       <c r="Y169" s="3"/>
     </row>
     <row r="170">
-      <c r="A170" s="4"/>
-      <c r="B170" s="5"/>
+      <c r="A170" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>336</v>
+      </c>
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
@@ -6243,8 +6419,12 @@
       <c r="Y170" s="3"/>
     </row>
     <row r="171">
-      <c r="A171" s="4"/>
-      <c r="B171" s="5"/>
+      <c r="A171" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>338</v>
+      </c>
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
@@ -6270,8 +6450,12 @@
       <c r="Y171" s="3"/>
     </row>
     <row r="172">
-      <c r="A172" s="4"/>
-      <c r="B172" s="5"/>
+      <c r="A172" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>340</v>
+      </c>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
@@ -6297,8 +6481,12 @@
       <c r="Y172" s="3"/>
     </row>
     <row r="173">
-      <c r="A173" s="4"/>
-      <c r="B173" s="5"/>
+      <c r="A173" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>342</v>
+      </c>
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
@@ -6324,8 +6512,12 @@
       <c r="Y173" s="3"/>
     </row>
     <row r="174">
-      <c r="A174" s="4"/>
-      <c r="B174" s="5"/>
+      <c r="A174" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>344</v>
+      </c>
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
@@ -6351,8 +6543,12 @@
       <c r="Y174" s="3"/>
     </row>
     <row r="175">
-      <c r="A175" s="4"/>
-      <c r="B175" s="5"/>
+      <c r="A175" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>346</v>
+      </c>
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
@@ -6378,8 +6574,12 @@
       <c r="Y175" s="3"/>
     </row>
     <row r="176">
-      <c r="A176" s="4"/>
-      <c r="B176" s="5"/>
+      <c r="A176" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>348</v>
+      </c>
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
@@ -6405,8 +6605,12 @@
       <c r="Y176" s="3"/>
     </row>
     <row r="177">
-      <c r="A177" s="4"/>
-      <c r="B177" s="5"/>
+      <c r="A177" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>350</v>
+      </c>
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
@@ -6432,8 +6636,12 @@
       <c r="Y177" s="3"/>
     </row>
     <row r="178">
-      <c r="A178" s="4"/>
-      <c r="B178" s="5"/>
+      <c r="A178" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>352</v>
+      </c>
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
@@ -6459,8 +6667,12 @@
       <c r="Y178" s="3"/>
     </row>
     <row r="179">
-      <c r="A179" s="4"/>
-      <c r="B179" s="5"/>
+      <c r="A179" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>354</v>
+      </c>
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
